--- a/frontend/public/templates/students_list.xlsx
+++ b/frontend/public/templates/students_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\NihonStudyGuide\frontend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCB3FF1-6864-4DAB-A653-59E08B7B162D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CFA28D-3ECB-4AEC-AE3A-B9A9539EEE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{56EDAB6C-C3B7-4DDE-92F9-23A04AE68FED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Student List</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Batch</t>
+  </si>
+  <si>
+    <t>input Batch name</t>
+  </si>
+  <si>
+    <t>input Class name</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +466,6 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -473,11 +478,17 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
@@ -500,6 +511,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576" xr:uid="{DC72EBB3-CFF7-4DC9-8B48-4F73E0AB2F2E}">
+      <formula1>"Male, Female"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/frontend/public/templates/students_list.xlsx
+++ b/frontend/public/templates/students_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\NihonStudyGuide\frontend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CFA28D-3ECB-4AEC-AE3A-B9A9539EEE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F9C57E-0B05-4597-A1C0-3AB455421BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{56EDAB6C-C3B7-4DDE-92F9-23A04AE68FED}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
